--- a/SFE - InternalEnergy/LUKE_T40_P300.xlsx
+++ b/SFE - InternalEnergy/LUKE_T40_P300.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - EmptySpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63549C-AF7C-456A-9637-2AE1A1BCFC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979DCFC-6552-4589-A145-1791BBB977B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
   <dimension ref="C5:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SFE - InternalEnergy/LUKE_T40_P300.xlsx
+++ b/SFE - InternalEnergy/LUKE_T40_P300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979DCFC-6552-4589-A145-1791BBB977B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC71299-BDAD-4E51-9D2D-AA5C6FF76AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
+    <workbookView xWindow="16050" yWindow="4515" windowWidth="29580" windowHeight="16110" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,13 +311,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.8</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.6</c:v>
+                  <c:v>21.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32.1</c:v>
@@ -326,7 +326,7 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.7</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50.5</c:v>
@@ -594,7 +594,416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79999999999999716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59999999999999432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30000000000001137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29999999999999716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-050E-4D3D-87E5-80AF0E99B919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1533902527"/>
+        <c:axId val="1533902943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1533902527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533902943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1533902943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533902527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1150,6 +1559,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1183,6 +2108,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F8C8E7-CCBB-5E32-DDC1-A21DD5B1354C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1488,15 +2449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9538816-0AF2-43F4-8917-BC49AF8E848D}">
-  <dimension ref="C5:H36"/>
+  <dimension ref="C5:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>40</v>
       </c>
@@ -1536,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F7">
         <v>5</v>
       </c>
@@ -1546,41 +2507,57 @@
       <c r="H7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>G7-G6</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H8">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I36" si="0">G8-G7</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="H10">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>25</v>
       </c>
@@ -1590,8 +2567,12 @@
       <c r="H11">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>10.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>30</v>
       </c>
@@ -1601,20 +2582,28 @@
       <c r="H12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>35</v>
       </c>
       <c r="G13">
-        <f>G11+14.6</f>
-        <v>46.7</v>
+        <f>G11+13.9</f>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>40</v>
       </c>
@@ -1625,8 +2614,12 @@
       <c r="H14">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>45</v>
       </c>
@@ -1637,8 +2630,12 @@
       <c r="H15">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>50</v>
       </c>
@@ -1649,8 +2646,12 @@
       <c r="H16">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>55</v>
       </c>
@@ -1661,8 +2662,12 @@
       <c r="H17">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>60</v>
       </c>
@@ -1673,8 +2678,12 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999957</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>65</v>
       </c>
@@ -1685,8 +2694,12 @@
       <c r="H19">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000085</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>70</v>
       </c>
@@ -1697,8 +2710,12 @@
       <c r="H20">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>75</v>
       </c>
@@ -1709,8 +2726,12 @@
       <c r="H21">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>80</v>
       </c>
@@ -1721,8 +2742,12 @@
       <c r="H22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>85</v>
       </c>
@@ -1733,8 +2758,12 @@
       <c r="H23">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000028</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>90</v>
       </c>
@@ -1745,8 +2774,12 @@
       <c r="H24">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>95</v>
       </c>
@@ -1757,8 +2790,12 @@
       <c r="H25">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>100</v>
       </c>
@@ -1769,8 +2806,12 @@
       <c r="H26">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999716</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>105</v>
       </c>
@@ -1781,8 +2822,12 @@
       <c r="H27">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000568</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>110</v>
       </c>
@@ -1793,8 +2838,12 @@
       <c r="H28">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>115</v>
       </c>
@@ -1805,8 +2854,12 @@
       <c r="H29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>120</v>
       </c>
@@ -1817,8 +2870,12 @@
       <c r="H30">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>125</v>
       </c>
@@ -1829,8 +2886,12 @@
       <c r="H31">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>130</v>
       </c>
@@ -1841,8 +2902,12 @@
       <c r="H32">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>135</v>
       </c>
@@ -1853,8 +2918,12 @@
       <c r="H33">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>140</v>
       </c>
@@ -1865,8 +2934,12 @@
       <c r="H34">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>145</v>
       </c>
@@ -1877,8 +2950,12 @@
       <c r="H35">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>150</v>
       </c>
@@ -1888,6 +2965,14 @@
       </c>
       <c r="H36">
         <v>0.4</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="J36">
+        <f>SUM(I7:I36)</f>
+        <v>74.600000000000009</v>
       </c>
     </row>
   </sheetData>
